--- a/static analysis/fingbugs_pmd/정적분석결과_B3.xlsx
+++ b/static analysis/fingbugs_pmd/정적분석결과_B3.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\static analysis\fingbugs_pmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGGit\vnv-team-3\static analysis\fingbugs_pmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2D53A-7456-41D6-9510-9CFC50DE3A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A72E89-1C55-458F-A1E3-5DB6982C0B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6AB2B5B-B36D-48D8-B551-DDFE101EE59E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{F6AB2B5B-B36D-48D8-B551-DDFE101EE59E}"/>
   </bookViews>
   <sheets>
     <sheet name="포맷" sheetId="1" r:id="rId1"/>
     <sheet name="중요한 에러" sheetId="4" r:id="rId2"/>
     <sheet name="A4" sheetId="2" r:id="rId3"/>
-    <sheet name="B3" sheetId="3" r:id="rId4"/>
+    <sheet name="B3_SUMMARY" sheetId="5" r:id="rId4"/>
+    <sheet name="B3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="77">
   <si>
     <t>도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,12 +93,664 @@
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DLS_DEAD_LOCAL_STORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main.java:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용되지 않은 지역 변수가 존재합니다.</t>
+  </si>
+  <si>
+    <t>사용되지 않은 지역 변수가 존재합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Main {
+    public static void main(String[] args){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DWS_controller dws_controller = new DWS_controller();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_WRITE_TO_STATIC_FROM_INSTANCE_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static field에 쓰는 메서드 인스턴스가 존재합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqStartStopwatch() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentState = 9;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        STM.startStopwatch();
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqStopStopwatch() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentState = 10;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        STM.stopStopwatch();
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setter 메서드를 사용하기를 권장드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqResetStopwatch() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentState = 8;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        STM.resetStopwatch();
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqLapStopwatch() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">currentState = 11;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        STM.lapTime();
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqStartTimer() {
+        TRM.startTimer();
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentState = 23;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqStopTimer() {
+        TRM.stopTimer();
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentState=24;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqResetTimer() {
+        TRM.resetTimer();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        currentState = 19;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void reqChangeSW (AlarmMode alm, TimerMode tmr, int button) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        currentState = 28;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        SWM.enterChangeSW(alm, tmr,button); }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void setCurrentState(int currentState) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DWS_controller.currentState = currentState;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWS_controller.java:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gui = new GUI(this);
+BLC = new BrightcontrolMode(gui);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">currentState = 0;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>displayTimer = new Timer();
+long delay = 0;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemPrintln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기화나 스레드동작에 취약합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println이 사용됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트시에는 문제되지 않으나 출시시 반드시 제거필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 구문 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EI_EXPOSE_REP</t>
+  </si>
+  <si>
+    <t>EI_EXPOSE_REP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutable 객체를 그대로 반환했습니다. 클라이언트가 설계 의도에 반하여 객체 내용을 수정해버릴 수 있습니다</t>
+  </si>
+  <si>
+    <t>카피 객체를 반환하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWMode.java:96, 98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutable 객체를 그대로 반환했습니다. 
+클라이언트가 설계 의도에 반하여 객체 내용을 수정해버릴 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    public String[][] getSelectedSW(){return selectedSW;}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public String[][] getSW() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        return SW;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EI_EXPOSE_REP2</t>
+  </si>
+  <si>
+    <t>EI_EXPOSE_REP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 mutable 객체를 내부에서 참조했습니다.</t>
+  </si>
+  <si>
+    <t>외부 mutable 객체를 내부에서 참조했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 object의 복사본을 사용하길 권장드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWMode.java:82, 85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void setSW(String[][] SW) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        this.SW = SW;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+    public void setSelectedSW(String[][] selectedSW) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        this.selectedSW = selectedSW;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MethodReturnsInternalArray</t>
+  </si>
+  <si>
+    <t>메서드가 내부 배열을 노출합니다</t>
+  </si>
+  <si>
+    <t>방어기법을 적용하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionLiteralsFirstInComparisons</t>
+  </si>
+  <si>
+    <t>문자열을 비교할 때는 상수 문자열을 앞쪽에 배치하세요 (코드 컨벤션)</t>
+  </si>
+  <si>
+    <t>문자열 상수의 eqauls()를 호출하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidDuplicateLiterals</t>
+  </si>
+  <si>
+    <t>상수 리터럴이 반복적으로 나타나고 있습니다</t>
+  </si>
+  <si>
+    <t>enum이나 static final로 선언하여 사용하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidLiteralsInIfCondition</t>
+  </si>
+  <si>
+    <t>if 조건문에 상수 리터럴을 사용했습니다</t>
+  </si>
+  <si>
+    <t>UseEqualsToCompareStrings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 비교에 ==를 쓰지 마십시오</t>
+  </si>
+  <si>
+    <t>equals()를 호출하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +783,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -168,15 +846,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,7 +1145,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -211,6 +1310,3275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>305406</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8703124A-4073-4151-BC42-65AD9435A4CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1356360" y="434340"/>
+          <a:ext cx="6995766" cy="906859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297788</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4E2856-B2B4-4C60-B5DC-A0692C86234C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325880" y="1402080"/>
+          <a:ext cx="7018628" cy="2324301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267304</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D81519-3475-41BC-8D98-84BEBF3222CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="3977640"/>
+          <a:ext cx="6972904" cy="1638442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>252067</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0801B6C-0107-4A6E-9B7D-D414C0399D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8671560" y="1691640"/>
+          <a:ext cx="7003387" cy="3337849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="잉크 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FFA8F7-EB29-42D4-AF35-5E4CADC978BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="960480" y="2775960"/>
+            <a:ext cx="751320" cy="1768680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="잉크 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FFA8F7-EB29-42D4-AF35-5E4CADC978BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="951840" y="2767318"/>
+              <a:ext cx="768960" cy="1786324"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="잉크 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B089C15-E9E4-461D-B197-2756AFDD91AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5065560" y="3236760"/>
+            <a:ext cx="3577680" cy="756000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="잉크 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B089C15-E9E4-461D-B197-2756AFDD91AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5056920" y="3227760"/>
+              <a:ext cx="3595320" cy="773640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>570600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="잉크 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A148C2-B1D8-4420-A789-D9C2532B9C62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8617320" y="2284920"/>
+            <a:ext cx="2405160" cy="637200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="잉크 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A148C2-B1D8-4420-A789-D9C2532B9C62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8608680" y="2275920"/>
+              <a:ext cx="2422800" cy="654840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>460800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="잉크 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F503E45-27B7-4B1F-8840-1D687F037CF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8507520" y="3267360"/>
+            <a:ext cx="3952800" cy="642600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="잉크 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F503E45-27B7-4B1F-8840-1D687F037CF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8498520" y="3258360"/>
+              <a:ext cx="3970440" cy="660240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="잉크 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC8DB45-298D-4C5F-9F6E-87D91431F50D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1432800" y="4476240"/>
+            <a:ext cx="1619640" cy="947880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="잉크 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC8DB45-298D-4C5F-9F6E-87D91431F50D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1423800" y="4467600"/>
+              <a:ext cx="1637280" cy="965520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="잉크 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B2C944-20E3-409F-B9F9-B79E22D78EC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1351800" y="50760"/>
+            <a:ext cx="6967800" cy="4026240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="잉크 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B2C944-20E3-409F-B9F9-B79E22D78EC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1333800" y="32760"/>
+              <a:ext cx="7003440" cy="4061880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C9F571-4B10-494E-8363-BA6BF3FF60B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="7513320"/>
+          <a:ext cx="10058400" cy="819940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>151716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE52DC22-51C3-4940-B657-D5EA0B9F2374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="8397240"/>
+          <a:ext cx="10058400" cy="3024456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335890</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BAD513-75F7-4AE4-8362-D12941331526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="11711940"/>
+          <a:ext cx="7041490" cy="5014395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358752</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>129992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0A25C1-8CA1-43BC-9D52-2D3B8E1A11D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="11711940"/>
+          <a:ext cx="7064352" cy="5212532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>126420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227280</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="잉크 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6653A0C-FBDD-49A2-9375-DC13E2EFCA87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1198320" y="7418760"/>
+            <a:ext cx="10428480" cy="4077000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="잉크 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6653A0C-FBDD-49A2-9375-DC13E2EFCA87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1180320" y="7401120"/>
+              <a:ext cx="10464120" cy="4112640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591120</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>89460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430080</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44580</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="잉크 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25D46D1-5D27-4B02-8B88-A909603A2220}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1261680" y="9149640"/>
+            <a:ext cx="7215120" cy="3048840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="잉크 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25D46D1-5D27-4B02-8B88-A909603A2220}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1252680" y="9140640"/>
+              <a:ext cx="7232760" cy="3066480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>213060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="잉크 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F4B36D-9166-4F2B-8FFC-BBCE35863C97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2091120" y="12366960"/>
+            <a:ext cx="1055520" cy="721800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="잉크 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F4B36D-9166-4F2B-8FFC-BBCE35863C97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2082480" y="12357960"/>
+              <a:ext cx="1073160" cy="739440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60360</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>214500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="잉크 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370A93C6-CAE5-48C2-8706-2156A993E14D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4083720" y="15241140"/>
+            <a:ext cx="802800" cy="183240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="잉크 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370A93C6-CAE5-48C2-8706-2156A993E14D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4075080" y="15232500"/>
+              <a:ext cx="820440" cy="200880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200640</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>167820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>626400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>215400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="잉크 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CABF9A-85DA-46B4-97CE-C77F9AFB1BF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1541760" y="14310540"/>
+            <a:ext cx="1766880" cy="268560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="잉크 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CABF9A-85DA-46B4-97CE-C77F9AFB1BF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1533120" y="14301900"/>
+              <a:ext cx="1784520" cy="286200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640440</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>127200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>271200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>29580</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="잉크 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781A1995-1C58-4766-8D3E-29EF4E251CBB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1311000" y="14490900"/>
+            <a:ext cx="2313000" cy="1007280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="잉크 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781A1995-1C58-4766-8D3E-29EF4E251CBB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1302000" y="14482257"/>
+              <a:ext cx="2330640" cy="1024926"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>397800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>162060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409560</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="잉크 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472C3CDE-469D-41E7-AA0E-FC15C5E95BCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9115080" y="14304780"/>
+            <a:ext cx="1352880" cy="304920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="잉크 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472C3CDE-469D-41E7-AA0E-FC15C5E95BCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9106080" y="14295780"/>
+              <a:ext cx="1370520" cy="322560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398880</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>212640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="잉크 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F3F947-D651-4FB0-ADDE-F6013463A9D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9116160" y="14805900"/>
+            <a:ext cx="1394640" cy="212400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="47" name="잉크 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F3F947-D651-4FB0-ADDE-F6013463A9D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9107520" y="14797260"/>
+              <a:ext cx="1412280" cy="230040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259200</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28440</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>157260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="48" name="잉크 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6121BF-B9F1-4CAB-B99D-44D402A5E104}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8976480" y="16153740"/>
+            <a:ext cx="1780920" cy="356040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="48" name="잉크 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6121BF-B9F1-4CAB-B99D-44D402A5E104}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8967840" y="16144740"/>
+              <a:ext cx="1798560" cy="373680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C170B2-AA62-43D6-86FC-DBF0AB9EF355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798628" y="1774371"/>
+          <a:ext cx="9013371" cy="786882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>616712</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EBC716-67E7-4210-9F5A-8142A22B57FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="3526971"/>
+          <a:ext cx="6690940" cy="823031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>624332</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CEA85A-28A6-47A1-8A6A-AF90753776AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="5965371"/>
+          <a:ext cx="6698560" cy="800169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>672943</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>518211</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="잉크 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40614B19-9F2E-4FC9-8067-6C2AB31474FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="20245457" y="806040"/>
+            <a:ext cx="3219840" cy="5735880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="잉크 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40614B19-9F2E-4FC9-8067-6C2AB31474FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20236457" y="797040"/>
+              <a:ext cx="3237480" cy="5753520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21651</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>75943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22011</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76303</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="잉크 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F96C5F-20FE-4170-919C-68AEB5A235B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13519937" y="7347600"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="잉크 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F96C5F-20FE-4170-919C-68AEB5A235B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13510937" y="7338960"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21651</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>75943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22011</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76303</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="잉크 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A08DBD-C34D-4C7B-98F2-BF9F4663A99D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13519937" y="7347600"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="잉크 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A08DBD-C34D-4C7B-98F2-BF9F4663A99D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13510937" y="7338960"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42994</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>43354</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54343</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="잉크 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF2A6EC-48C0-4B88-9044-43F1481DB65E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11516537" y="7325640"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="잉크 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF2A6EC-48C0-4B88-9044-43F1481DB65E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11507897" y="7316640"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184817</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>173417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185177</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>173777</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="잉크 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DB2683-D900-40A6-8DC2-770B9FCC6481}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6933960" y="10950274"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="잉크 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DB2683-D900-40A6-8DC2-770B9FCC6481}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6925320" y="10941634"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325851</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>326211</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108565</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="잉크 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEF25DE-0618-46F4-8076-C5316421EDF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6400080" y="8925634"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="잉크 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEF25DE-0618-46F4-8076-C5316421EDF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6391440" y="8916994"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445731</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97868</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="잉크 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB2DC36-DBF5-412D-A535-64DC4ACD8D2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6519960" y="8261794"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="잉크 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB2DC36-DBF5-412D-A535-64DC4ACD8D2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6511320" y="8252794"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609154</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609514</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119434</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="잉크 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBDD3F9-7211-430D-92F3-92A24547E275}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9383040" y="10025074"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="잉크 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBDD3F9-7211-430D-92F3-92A24547E275}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9374400" y="10016434"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65365</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="잉크 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A649406C-FFB9-4DB8-BB0C-2894AD9B14A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5311800" y="8882434"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="잉크 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A649406C-FFB9-4DB8-BB0C-2894AD9B14A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5303160" y="8873794"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>271954</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>272314</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="잉크 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070E8394-963C-43C3-8194-B0C4B53C8521}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12420411" y="10134154"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="잉크 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070E8394-963C-43C3-8194-B0C4B53C8521}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12411771" y="10125514"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217422</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>217114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>217474</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="잉크 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DA5BB0-F38F-4950-AE38-F2FDB3AD7571}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11016051" y="8599114"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="잉크 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DA5BB0-F38F-4950-AE38-F2FDB3AD7571}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11007051" y="8590114"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>624332</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>92763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700E2F48-2610-46E9-8E7A-1DF35BA8338A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="8382000"/>
+          <a:ext cx="6698560" cy="2705334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>654815</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>73187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D13A5-A151-4264-A959-D7DF88F18580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="12322629"/>
+          <a:ext cx="6729043" cy="2903472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>616712</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>136610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7196915-5F93-4337-8BEB-ABFE973FDB68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="15370629"/>
+          <a:ext cx="6690940" cy="6210838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>639573</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>146372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7783C5-B458-48CB-9860-3DC1F9CE2F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17547771" y="12322629"/>
+          <a:ext cx="6713802" cy="5806943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>601469</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>111574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B51AFB-B444-49E6-9466-227332E99EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17547771" y="18418629"/>
+          <a:ext cx="6675698" cy="6218459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>616712</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>151362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D37EA9-39EA-481D-985B-1FB7D24E334A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="25635857"/>
+          <a:ext cx="6690940" cy="586791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T12:10:34.961"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2087 81,'-5'-1,"0"0,0 0,1-1,-1 0,1 0,-1 0,-5-4,-5-1,-14-5,-1 2,0 1,0 2,-1 0,1 2,-1 2,-1 1,1 1,0 2,0 0,-54 12,7 4,1 3,1 4,-102 46,92-31,3 2,0 5,4 3,1 3,-93 83,123-91,2 1,2 3,2 2,2 2,3 1,2 2,2 1,-40 95,31-34,4 2,6 2,-30 220,16 380,64-183,-4-407,6-1,40 143,-36-192,4-1,3-1,3-1,57 94,-56-117,2-2,3-1,2-2,1-2,3-2,68 53,-68-64,57 33,-78-54,-1-1,2-2,-1 0,40 10,-63-20,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 1,-1-2,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,2-3,-1 0,0 0,-1 0,1 0,-1-1,0 1,0-1,-1 0,2-7,-1 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="348.92">558 4886,'0'0,"7"2,17 5,10 1,1-2,6-3,16-4,11-10,5-18,2-18,2-21,-4-19,-8-25,-9-16,-8-14,-11 18,-13 29,-10 31</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:09:48.307"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1832 283,'-36'14,"0"-1,-1-1,0-3,-42 6,23-4,-241 48,-435 29,651-84,0-3,1-4,-115-18,183 19,-29-7,39 8,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,1 1,-3-4,4 4,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,1-3,24-21,-23 21,31-25,2 2,0 2,77-38,131-38,-129 62,1 5,1 5,187-19,-198 38,-1 5,1 4,0 6,139 24,-191-20,83 26,-120-30,-1 0,0 1,0 1,0 0,-1 1,-1 1,1 1,24 23,-33-27,-1-1,0 1,0 0,0 1,-1-1,0 1,-1 0,0 0,0 0,0 1,-1-1,1 14,-2-8,0 1,-1-1,-1 1,0-1,-1 1,-5 21,-5 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:10:05.651"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4734 530,'-17'6,"-106"33,-2-4,-138 18,-888 30,506-98,3-45,94 8,-127-15,633 62,-194-30,186 25,-1-2,-74-29,122 40,0 0,0-1,-1 1,1-1,0 1,0-1,1 0,-1 0,0-1,1 1,-4-4,6 5,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,2-1,11-9,1-1,0 2,0 0,1 0,27-11,90-27,-105 38,166-49,263-46,212 23,-448 74,1 9,393 53,428 140,-940-172,-50-11,365 84,-314-66,193 82,-267-98,0 2,0 1,-2 2,48 38,-58-35,-13-10,-6-11,1 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:10:10.718"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6228 1229,'-1'0,"-1"0,0 1,1-1,-1 0,1 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,-1 3,-7 3,-50 22,-3-3,0-3,-1-2,-1-3,-113 14,-343 2,385-28,-232 9,-703 15,93-5,447-7,-106-28,526 1,1-4,0-6,-182-57,242 60,-60-31,94 40,0-1,0-1,1 0,1-1,-1 0,2-2,-18-18,30 29,-1 1,1-1,0 0,0 0,-1 0,1 1,1-1,-1 0,0 0,0 0,1-1,-1 1,1 0,-1-2,1 3,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,2-1,3-1,2 0,-1 0,0 1,0 0,1 0,10 0,-5-1,560-104,216-43,-414 79,714-41,150 127,-968-6,-82-4,300 13,-5 29,-471-46,38 6,1 2,-1 2,72 26,-122-37,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-2 4,-1-1,0-1,0 1,0 0,0-1,-7 7,-3 2,-52 58,-276 271,217-239,-154 93,222-159</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1948.91">3103 2412,'-4'1,"1"0,-1 0,1 0,-1 1,1 0,0-1,-1 1,-2 3,-10 4,-144 55,-202 52,317-102,-113 31,-1-7,-2-6,-269 17,334-47,-1-4,-169-26,193 14,0-3,2-3,0-3,-81-39,116 45,0-1,1-1,1-2,2-1,0-2,-33-32,63 54,0 0,-1 0,1 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0-5,2 5,-1 0,1 0,0 1,0-1,1 0,-1 1,0-1,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,1 0,-1 0,5-2,58-39,2 3,2 3,106-41,-57 34,1 6,3 5,0 6,237-23,507 39,-670 18,246 41,-420-44,58 13,-73-15,1 1,-1 0,1 0,-1 1,0-1,0 2,11 7,-17-11,0 1,0-1,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,-1 3,-5 6,0 0,0-1,-13 13,8-8,-95 107,-4-5,-218 175,290-261</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3082.01">335 1,'-46'63,"21"-15,3 1,-20 61,-21 107,56-193,-36 141,-26 205,60-289,3-1,3 1,4-1,21 145,-13-180,2-1,2-1,2 0,2-1,2 0,1-2,2 0,43 58,-26-49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3466.15">246 1441,'0'0,"4"2,10 7,12 5,13-2,14 1,20-1,-4-2,-12-3,-16-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:10:30.668"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3698 10,'4'1,"0"0,0 1,-1-1,1 1,0 0,-1 0,5 3,3 2,-10-6,0-1,0 0,0 1,0 0,-1-1,1 1,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,-25 38,16-27,-39 54,-3-2,-2-2,-4-2,-124 101,132-125,-2-2,-1-2,-1-3,-2-2,0-2,-2-3,-80 21,48-25,-1-4,0-3,-1-5,-167-8,-370-70,429 43,-798-79,954 104,-112-15,127 14,0-3,0 0,-33-14,61 20,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,0-2,12-30,-8 19,2-3,1 0,0 0,1 1,0 1,2-1,0 2,0-1,1 2,0-1,2 2,-1 0,1 0,1 1,-1 1,2 1,19-9,26-7,1 2,1 3,66-11,-76 18,714-138,-607 129,0 7,301 14,-258 20,-2 9,-1 9,345 113,-345-73,-167-62,-1 1,-1 1,52 42,-67-47</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:10:34.518"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3873 282,'-77'38,"-3"-4,-1-3,-94 23,-259 36,215-60,0-10,-1-9,-337-26,212-21,-510-121,649 110,-198-48,417 95,1-1,-1-1,1 0,-1-1,0 0,14-6,20-3,295-60,669-52,-715 113,1 13,478 64,-308 24,-366-63,-1 5,145 67,-241-97,-2-2,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,2 2,-3-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:10:39.785"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4946 517,'-22'13,"0"0,-2-2,1 0,-42 12,-81 13,94-24,51-12,-875 194,-14-72,-766-86,896-76,572 8,160 25,0-2,0 0,1-2,-37-20,58 28,0-1,1 0,-1 0,1 0,-5-6,9 10,0-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0-1,1 1,308-144,-275 130,156-66,765-294,-822 332,1 5,1 6,2 6,1 6,263-2,-106 31,534 88,-482-21,-306-64,0 1,-1 2,0 3,-2 0,0 3,37 27,-60-36,1 1,-2 0,0 1,-1 1,0 1,-2 0,0 0,0 1,-2 1,16 38,-13-20,-2 1,-2 0,-1 1,5 76,-11-81</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:26:34.687"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">307 0,'11'15,"290"439,-26 19,349 806,-468-875,137 547,38 862,-207 28,-127-1043,-113 842,-298 764,131-1305,-96-33,284-854,-8-5,-162 240,177-319,-5-5,-6-3,-5-5,-150 130,179-184,24-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2051.74">3750 4505,'-3'8,"-11"49,2 1,-8 110,11-87,-65 656,-76 598,147-1315,0-4,5-23,58-219,9 3,100-216,-79 250,-76 162,3 1,0 0,1 2,36-38,-47 55,0 1,0 0,0 0,0 1,1 0,0 0,0 1,1 0,-1 0,1 1,10-3,-13 5,0 1,1-1,-1 1,0 0,0 0,0 1,0 0,0 0,0 1,0-1,0 1,0 0,-1 1,1 0,-1 0,0 0,9 6,5 7,-2 0,0 2,0-1,-2 2,0 0,-1 1,-1 1,14 29,3 15,35 108,-47-117,-2 1,-3 1,-2 0,-3 0,1 60,-8-91,-2 0,-1 0,-1 0,-2-1,0 0,-2 1,0-2,-2 1,-1-1,-1-1,-1 0,-1 0,-22 28,12-25,0-1,-2-1,-1-2,-1 0,0-2,-2-1,-1-1,0-2,-1-1,-1-1,-36 11,12-7,-2-3,0-3,0-2,-1-2,-103 1,126-10,1-2,-1-1,1-2,-41-10,57 10,1-1,-1-1,1-1,0 0,1-1,0-1,0-1,-27-24,26 19,1-2,1 0,1-1,0 0,1-1,-14-28,2-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2580.4">4643 6354,'6'2,"1"1,-1 0,0 0,0 0,0 1,10 8,6 4,35 20,3-3,0-2,2-2,1-4,115 31,-142-48,1-2,0-2,0-1,1-2,36-3,-46-1,-1-1,1-1,-1-1,-1-2,1-1,-1-1,36-19,-43 18,-1-1,0-1,-1 0,0-1,-1-1,0-1,-2 0,0-1,-1-1,0 0,-2-1,0 0,-1 0,-1-1,-1-1,0 1,4-23,-8 26,-1 0,0-1,-1 1,-1 0,-1-1,0 1,-2-1,0 1,0 0,-2 0,0 0,-1 0,-1 1,0-1,-1 1,-1 1,0 0,-1 0,-1 0,0 1,-23-23,15 21,0 2,0 0,-2 1,1 1,-2 0,1 2,-2 0,1 2,-1 0,-1 2,1 0,-1 1,0 2,0 0,0 1,0 2,-26 2,21-1,1 2,0 2,0 0,0 1,1 2,0 1,0 1,1 1,1 1,0 1,0 1,1 1,1 2,-24 22,23-15,1 2,2 1,0 0,2 1,1 1,1 1,2 1,1 0,1 0,2 1,-12 59,15-49,2 0,2 0,1 0,2 0,3 1,1-1,1-1,24 83,-20-96,1-1,1 0,2 0,1-1,23 33,-24-42,0-1,0 0,2-1,0-1,0 0,1-1,1-1,26 15,-15-15,0 0,1-2,0-1,0-1,1-1,0-2,0-1,0-2,57-1,-14-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2933.24">7052 5868,'-3'1,"-1"0,1-1,-1 1,1 1,0-1,0 0,-1 1,1 0,-4 2,-4 3,-35 16,2 3,0 1,-63 54,-103 111,189-173,8-8,2 1,-1 0,1 0,-18 28,29-39,-1 0,0 1,1-1,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,1 0,8 5,0-1,1 0,19 4,-19-5,57 17,70 25,-121-38,0 0,0 1,-1 1,0 0,18 16,-30-22,0 0,0 1,-1-1,0 1,0 0,0 1,-1-1,1 1,-1-1,0 1,-1 0,0 0,0 0,2 11,-3-9,0 1,-1-1,0 1,-1-1,1 0,-2 1,1-1,-1 1,-6 15,0-6,-1 0,-1 0,-1-1,0 0,-1-1,-1 0,0-1,-23 21,22-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3269.87">7960 4640,'3'12,"5"70,-4 1,-5 83,-1-81,-20 754,0 31,36-4,-12-829,0-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3665.86">7477 6099,'14'2,"350"55,577 14,-895-71,-24 0,1 0,29 5,-48-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4315.28">3595 8979,'0'0,"0"14,-2 40,1 34,3 37,7 34,6 53,3 34,3 27,3 12,0 8,-2-9,-2-15,-5-31,-4-43,-5-54,-3-52,-2-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4684.34">3637 9225,'0'0,"0"-1,1 1,-1 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 1,14 4,-13-4,23 8,156 68,-154-64,0 2,-1 1,0 1,31 28,-43-31,-2 1,0 0,-1 1,0 1,-1-1,-1 2,0-1,-2 1,0 0,-1 1,-1 0,0-1,2 31,-6-38,-1 0,0 0,-1-1,0 1,-1 0,0-1,-1 1,0-1,-1 0,0 0,0 0,-1-1,-9 15,10-18,0 0,0 0,0-1,-1 0,0 0,0 0,0-1,0 1,-1-1,0-1,1 1,-2-1,1 0,0 0,0-1,-1 1,0-2,1 1,-1-1,0 0,0 0,-7 0,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5150.85">4417 9242,'1'11,"14"64,3 0,41 102,-22-68,-15-43,0-2,-2 1,12 79,-31-115,-1-24,-1-20,1-48,2 0,4 0,2 0,3 0,2 1,35-98,-33 123,1 0,2 1,1 1,2 0,1 2,1 0,2 2,2 1,0 1,2 1,51-38,-59 51,1 0,0 1,1 2,1 0,0 1,30-8,-41 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5667.55">5847 8979,'-16'9,"-4"4,1 1,0 0,1 2,1 0,-17 21,-71 98,96-122,-36 48,4 2,2 2,2 2,-43 114,76-169,0 0,1 0,1 1,0-1,0 22,2-31,0 0,0 0,0 0,1 1,0-1,-1 0,1 0,0 0,1 0,-1-1,0 1,3 4,-2-6,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,2-1,6 0,-1-1,0-1,0 1,0-2,0 1,0-1,0-1,-1 1,0-1,0-1,0 1,13-14,9-11,42-53,-64 72,41-49,-3-3,-3-1,-2-3,45-102,-72 124,-12 35,0 1,1 0,8-17,-10 26,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,17 21,35 64,62 144,35 61,-137-272,1-1,1 0,0-1,2 0,-1-2,24 18,-26-23,1-1,0 0,0-1,1-1,0 0,0-1,1-1,0 0,18 3,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6051.12">7563 8921,'-3'1,"-1"0,1-1,-1 1,1-1,-1 0,1 0,-1 0,-5-1,-8-1,-2 4,1 1,0 0,0 2,0 0,0 0,1 2,0 0,0 1,1 1,-17 11,-8 9,1 1,-53 53,70-61,1 1,2 1,0 1,1 0,1 2,2 0,1 1,-12 31,22-46,0-1,1 1,1 0,0 0,1 1,1-1,0 0,0 1,1-1,1 1,0-1,1 0,1 0,0 0,0 0,2 0,-1 0,2-1,-1 0,2 0,13 19,-8-16,0 0,2-1,0 0,0-1,1 0,1-1,0-1,23 12,-13-11,0 0,1-2,0-1,1-1,31 5,0-5,1-3,0-2,-1-3,113-15,-67 0,-1-5,0-4,-2-5,193-83,-254 93,0-3,-2-1,68-54,-75 49</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:27:04.449"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:27:07.581"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:27:25.920"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1920.71">1 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T12:10:38.344"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'5'21,"3"10,2 0,1-1,1 0,2-1,0-1,2 0,34 44,59 55,134 119,-192-196,355 300,-302-276,2-4,141 68,-62-54,292 90,210 17,-482-138,543 112,-509-129,283 6,-190-42,-1-15,530-91,627-253,-610 53,53-15,-763 275,291-98,-446 139,-7 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="422.68">8682 827,'4'0,"0"0,0 0,0 0,0 1,0 0,0 0,5 1,15 3,38-2,83-7,-90 0,0 3,73 7,-122-5,-1 0,1 0,0 1,-1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,-1 1,1-1,7 9,-7-5,0 0,0 1,-1-1,0 1,0 0,0 0,-1 0,-1 1,3 9,2 16,-2 0,-2 1,0 0,-3-1,-4 44,-2-24,-2-1,-25 85,27-116,-17 36,14-41</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:27:58.298"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="397.7">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:27:59.466"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="341.9">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:28:02.112"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:28:03.594"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:28:11.548"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:28:14.653"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:28:15.222"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T12:10:40.058"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5364 1071,'-14'7,"1"0,-1-1,-1 0,1-1,-1-1,0 0,-30 3,-115-1,97-6,-1146-3,-1-80,-631-131,1786 208,-408-63,362 44,90 21,-1 0,1 0,0-1,0-1,-19-13,28 18,0-1,0 1,0-1,-1 0,2 0,-1 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,0 1,-1-1,3-4,2-1,0 0,1 1,-1-1,1 1,1 0,0 1,-1 0,13-9,14-8,1 2,0 0,73-29,126-29,14 11,393-57,272 32,476 46,-3 132,-757 18,-512-75,-1 5,-2 5,138 67,-195-78,80 54,-118-68,-1 0,0 1,-1 1,0 0,-2 2,0-1,22 34,-32-42,1 0,-1 1,-1-1,1 1,-2 0,1 0,-1 0,0 0,-1 0,0 0,-1 0,0 1,0-1,-1 0,0 0,0 0,-1 1,-1-2,1 1,-2 0,1 0,-8 13,-3 1,-2-1,0 0,-1-2,-1 0,-1 0,-37 29,-36 21,-3-3,-3-5,-106 50,-324 121,153-94,258-100</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T12:10:41.800"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9787 1266,'-30'-4,"0"0,0 2,0 2,0 0,-31 6,-4-2,-905 21,49-3,40 30,-92 3,0-42,-659-83,1384 57,-1011-82,14-93,1200 178,-50-9,-128-42,184 42,38 19,1 0,0-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,1-1,20-14,-18 13,90-44,141-49,-177 74,687-206,22 81,12 55,1 28,-728 60,3548-198,-2475 172,-1 57,-473 42,-537-51,-2 6,-1 4,179 74,-250-86,-2 2,0 1,64 47,-88-57,-1 1,-1 0,0 1,-1 0,14 21,-19-25,0 1,0-1,-1 1,-1 0,0 1,0-1,-1 1,0-1,2 20,-5-17,0 1,0-1,-1 0,-1 0,0 0,0 0,-1 0,-1-1,0 0,-1 1,0-2,0 1,-1-1,0 0,-1 0,-14 12,-7 6,0-2,-2-2,-67 42,9-16,-3-3,-120 42,-204 48,-933 170,-13-111,1245-181</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T12:10:43.010"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4366 1994,'-14'7,"-459"195,-17-38,253-93,-4-11,-1-11,-272 20,332-56,-2-9,1-7,0-9,-338-66,444 62,1-4,1-4,1-2,-127-66,169 73,1-1,1-1,0-2,2-1,-26-29,34 31,2-1,0 0,2-1,1-1,1-1,0 0,-10-33,10 16,2-1,3 0,1 0,2-1,2 0,2 0,2 0,2 0,15-83,-5 66,3 1,3 1,2 1,3 0,2 2,51-84,-41 86,3 3,2 1,2 1,2 3,59-49,-36 42,2 3,2 3,110-55,-54 44,3 6,2 5,2 7,228-41,-208 58,268-8,-299 32,-1 6,220 39,-257-27,0 4,-1 4,-1 3,126 65,-149-61,-2 2,-1 3,-2 3,-2 2,-1 2,69 79,-67-56,-2 2,-4 3,-3 1,-4 2,51 127,-25-18,56 248,-95-311</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T12:10:51.360"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="0"/>
+      <inkml:brushProperty name="anchorY" value="0"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">57 418,'0'0,"0"0,-4 0,2 0,3 0,1 1,4 0,3 2,6 0,6 1,7 1,9 0,8-1,14 0,15-2,27 0,16 0,22 0,10 1,15 0,6 1,4 1,-2 0,3 0,-7 0,0 0,-6 0,4 1,-4-1,3-1,-5 0,5 0,-3-1,3-2,0 0,7-1,-2-3,7 0,0-1,6-2,-2 1,3 0,-3 0,2 1,-4 0,1 1,-5 1,2 3,-4 3,4 4,-3 1,4 2,0 1,6 2,-3-1,7 1,-2-1,5-2,-2-1,8-2,-1-3,5-1,-4-1,7-1,-4 0,5-3,-5 1,4-2,-5 1,6 0,-8 0,2 3,-5 1,4 2,-6 0,2-1,-4 1,4-1,-5 0,4 0,-5-1,3 1,-2 0,2 1,-4 0,1-1,-8 0,2 1,-8-1,0 0,-7-1,0-2,-8-1,2 1,-7-1,-1 0,-6-1,1 1,-5 1,2-1,-5 0,0 1,-4-1,-1 1,-6 1,1-1,-6 0,0 1,-5 0,-2-1,-7 0,0 0,-5-1,-1 0,-4 0,1 0,-3 0,0 0,-2 0,1-1,-2 0,1-1,-3 1,0 1,-7-1,0 0,-7 0,-1 1,-8 0,-4 0,-15 1,-13-1,-13 1,-10-1,-9 0,-2 1,-4 2,2-1,-1 1,2 1,0 0,1 1,2 1,3 1,2 1,3 1,1 1,2 3,2 0,1 4,0 1,2 2,0 3,3 7,-1 2,-1 3,-1 2,1 3,0 0,1 3,2 7,3 19,1 9,1 8,1 5,-1 10,-2 1,-3 5,-4-1,-1 1,-6-5,-3-2,-2-6,-1 0,-2-6,-4 0,-2-6,0-2,0-3,0 0,-1-1,-1 1,-1-2,0 0,-1-4,-1 1,-1-2,1 3,1-2,-2 1,1-2,0 2,-1 0,2 3,1 0,0 3,2-1,-1 2,1 1,-1 4,-1 0,-2 4,0-1,-1 1,1-1,-2 3,0-1,0 0,-1-2,0 1,1-3,1 2,0-3,1 3,1-4,1 0,1-2,0 4,1-1,0 3,1-2,-1 4,0 0,0 7,0-1,0 4,0 1,0 7,0 0,-2 2,0-3,0 4,0-4,1 5,0-2,2 3,1-1,1 6,-2-2,3 4,-1-1,-1 8,0-1,1 3,0 1,0 7,-2 2,-1 7,-2 0,-2 4,1-5,-3-3,0-7,-2-4,-1-10,-2-8,-1-12,-2-11,0-12,-3-12,0-13,-3-11,0-8,-3-9,-2-6,-2-5,-3-3,-6-1,-3-2,-9 1,-5-1,-12 1,-6-1,-10 1,-5 1,-13 1,-5 0,-9 1,-5-1,-7 0,-2-1,-7 0,1 1,-7-1,4 0,-6 0,1 1,-7 1,2-1,-4 2,0-1,-5 0,1-1,-5 0,1 0,-9-1,2 0,-8-2,1 0,-8-3,0 1,-6-1,1 0,-7-1,1 0,-6-1,4-1,-5-1,3-1,-4 1,3 0,-6-1,4 0,-7 2,5-1,-4 0,5-1,-5 1,4 1,-2-2,1-1,-2 1,4 1,-8-1,5 0,-5 0,3 1,-7-1,4 1,-7 0,4 0,-6 0,3 0,-6-1,6 0,-6-2,2 0,-5-1,1-1,-8 0,2-1,-7-1,4 0,-7 1,2-2,-8-1,6 1,-6-1,7-1,-5-1,8-1,-5 0,8 0,-2-1,8 1,0 1,9 0,1 0,11-1,2-2,11 0,3-5,10-2,5-6,11-3,7-4,10-4,8-3,12-1,6-2,12-1,10 0,11 0,7-3,14-2,50 36,1 0,-13-17,-15-32,7-9,10-4,9-14,7-7,4-11,8-7,5-16,5-5,1-10,2-3,4-13,0-2,-1-13,-3-3,0-17,-1-4,-5-13,-2-2,-6-12,-3 1,-3-7,-3 2,-2-7,-1 2,1-7,0 3,0-10,1 2,2-11,1 4,2-8,1 6,5-6,0 9,5-4,0 6,4-4,2 8,2-1,2 9,2 0,3 12,3 5,-1 13,1 11,-1 19,1 13,-2 21,0 18,-2 20,0 18,-1 18,0 15,-3 14,1 11,0 7,2 7,-3 7,-5 5,-5 3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:08:38.236"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-3647.26807"/>
+      <inkml:brushProperty name="anchorY" value="-2630.46216"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">351 130,'0'0,"0"0,-16-7,4 0,1 1,0 0,2 4,1 5,1 8,1 7,-1 10,0 9,0 12,-4 14,-4 24,-1 13,-3 13,0 9,0 15,0 3,1 1,2-1,3 4,3-5,3-1,3-8,4-3,3-6,3-5,3-8,0-4,1-8,3-4,0-5,-1-1,0-4,0-2,-4-2,1-1,-1-2,0 0,-1-2,2 1,-2-5,1 2,-2-3,1 2,0-1,1 2,-1-1,0 2,0 0,-1 3,1 1,0 4,1 0,-1 3,0-1,-1 4,-2 0,0 6,0 1,-1 7,-1 3,-1 8,0 2,-1 8,0-1,-3 7,1-2,0 2,-2-3,1 1,-2-4,-1 0,0-5,0 2,1-5,-2 0,1-4,0 1,-1-6,0 1,1-6,0 0,0-5,2-1,0-6,0 1,1-4,1 0,1-3,0 3,1-1,0 3,0-1,-1 2,-1-2,0 1,-1-2,-2 3,-2-4,1 0,-1-3,-1 0,0-3,-2-1,3-3,-1-3,2-3,2-2,1-3,2 1,2-3,3 2,0 0,2 0,1 0,4 1,0-1,2 0,3-2,1 1,2-4,1-2,0-3,2-2,0-3,4-3,0-4,3-2,2-3,4-1,0-1,3 1,3 0,3 0,2-1,4 0,2-1,5 0,0-3,5-2,1-3,6 0,2-3,5 0,2-2,8 0,3-3,8-2,0-2,9-2,1-3,3-1,0-3,3-2,1-1,3-1,0-1,4 0,1 0,6-1,1 1,4 0,1 0,7-2,0-2,5 0,0-2,3-1,-2 0,5-1,-1-2,5 0,-2 0,6-1,-4 0,6-1,-3 0,5 0,-5 0,5 0,-4 0,3 0,-3 0,4 0,-4 0,3 2,-5 1,3-1,-4 1,4 2,-4 2,3 1,-3 2,2 1,-5 3,3 2,-6 1,2 1,-3 2,2-2,-3 1,1 1,-4-1,2-1,-4-1,-1-1,-2-1,2-2,-2-1,3-3,-3-1,4 0,-3-2,3-1,-2 2,4 1,0 0,2 3,-1-1,4 2,-3 0,3 2,-4 1,2-1,-5 0,2 0,-4 2,2 0,-2 0,2 0,-3 2,3 2,-3 0,4-1,-4 0,7-1,-1 0,6-2,-2 0,5-1,0-2,5-1,-3 0,5-1,-3-1,2-1,-3-2,4-2,-4-1,1-3,-4-1,0 0,-5-1,2 0,-6 2,3 1,-4 3,2 0,-5 2,4 1,-3 2,3 3,-4 0,4 3,-3 0,5 1,-4 0,4 0,-1 0,4-1,-4 0,3 0,-2 0,2-1,-3 0,4 1,-2-1,3 2,-5-1,4-2,-5 0,4 0,-5 0,4-2,-2 0,2-2,-5 0,5 0,-7 0,2-1,-3 1,0 1,-5 0,0 0,-3 2,1 1,-6 0,3 1,-3 0,1 1,-2 0,2 2,-5-1,4 3,-4-1,2 3,-4 2,3 1,-2 2,3 2,-2 0,5 3,-3-1,4 0,-2-1,3 0,-4-2,4-3,-4-3,0-2,-3-1,-1-4,-6 0,1-1,-6 0,1-1,-5 1,1 0,-4 0,-4 0,-5 0,0-1,-7-1,1-1,-9-1,0-3,-8-2,-5-4,-7-3,-5-3,-8-2,-5-4,-8-1,-4-3,-4 1,-5-3,-2-2,-1-1,-4 1,-2-3,-2-3,0-3,-2-4,-2-5,1-5,-1-4,0-3,-2-5,-2-1,1-6,-2-2,1-5,-1-4,-1-7,-1-2,1-8,0 1,-1-4,0 3,-1-4,-1 4,3-1,-1 3,0-3,2 2,-1-3,1 2,4-5,2 3,0-5,-1 2,0-5,-2 0,0-4,-2 1,1-6,-2 0,-1-5,-1 1,0-3,-2 2,0-4,0 4,-2-3,0 5,0-1,0 3,-1 1,-2 4,-2 0,1 3,-2-1,-2 2,-1-3,1 3,-1-3,1 1,-1-3,1 2,0-3,2 3,0-3,0 3,0-3,-1 1,0-2,0 3,-3-5,0 4,0-1,0 3,-1-1,-2 5,-1 0,0 6,-3-1,1 3,-2-1,1 3,-2-2,2 2,-2-2,0 3,-2-2,0 5,1 0,0 4,-1-1,0 4,1 1,0 6,3 1,0 5,3 5,4 16,4 16,3 15,0 12,2 7,1 3,-1 1,-2-3,-1-1,-2-2,-2-4,-6-4,-4-1,-6-2,-3-1,-3 1,-2 2,-4 0,-3 0,-9-1,-5 1,-8 1,-9-1,-24-5,-9 0,-14-1,-3-1,-12 2,-1 1,-4 0,2 4,-2 1,6 2,-4 2,3 1,-2 1,3 1,-3 0,4 1,-6 1,4 2,-8-1,2 1,-6 1,-1 2,-5 1,1 2,-4 0,0 1,-4 0,0 2,-5-1,5 2,-3 0,6 2,-4-2,6 0,-2-2,6-1,-3-2,4 0,-2 0,3-3,-4 0,2-3,-6 0,0-2,-5 0,2 0,-6-1,3-1,-8 2,1 0,-8 1,1 1,-6 1,4 2,-7 0,3 1,-5 1,2 2,-7-1,1 0,-6 0,3 0,-8 0,4 1,-5 0,4 1,-5 0,3 0,-6 0,4 0,-5 1,4 0,-5 1,6-1,-5 1,6 0,-5 1,6-1,-3 0,5 2,-3-1,5-1,-5 0,3 0,-3 1,6 0,-3-1,4-1,-4 0,4-1,-5 1,2 0,-6 1,1 0,-7 0,3 1,-7 0,3 1,-5 0,5 0,-6 0,6 0,-3-2,5 1,-5 0,3-1,-6 1,3-1,-7 0,3 1,-7 1,7-1,-5 1,6 0,-4 1,7 0,-1 0,5 0,0-2,8-1,-5 0,7-2,-3 2,5-1,-5-1,6 2,-3 0,6-1,-2 0,9 0,-4-1,8 1,-3 0,5 0,-3-1,5 0,-2-1,2 1,-1-1,3 1,-3 1,6 0,0 1,8 1,4 1,8 1,6-1,9 1,3-1,9 1,9 0,10-1,2 1,9-2,6-1,8 0,7-1,18 1,17-1,15 0,12 0,9-1,5 0,3 0,0 0,0 0,0 0,-2 0,1-1,-2-1,0 1,0 0,0 0,0 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:09:29.093"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3311 947,'0'-1,"-1"0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,-2 0,-45-4,35 4,-309-4,87 5,-1050-69,1224 63,-303-35,322 33,0-3,1-1,1-2,0-2,1-2,-56-32,78 38,1 0,0-2,0 0,1 0,1-2,0 0,1 0,-19-30,27 37,0 0,1-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,1 0,0-1,1 1,0 0,1-1,-1 1,2 0,-1 0,2 0,-1 0,7-17,-1 12,1 0,0 1,0 0,1 0,1 1,0 0,1 1,0 1,1 0,0 0,0 1,24-12,7 0,1 2,89-26,-34 20,1 4,0 5,127-5,310 32,-100 45,-352-39,0 5,161 64,-217-74,-1 3,0 0,-1 2,-1 1,31 27,-45-34,0 2,-1-1,-1 2,0 0,-1 0,0 1,-1 0,-1 0,0 1,-2 0,8 23,-9-14,0-1,-2 1,-1 0,-1 0,-1 1,-1-1,-1 0,-1 0,-1-1,-2 1,0-1,-2 0,-16 38,0-14,-1 0,-3-1,-1-2,-3-1,-48 53,36-49,-2-3,-2-1,-2-2,-2-3,-76 45,82-59,-1-2,-1-1,-1-3,-1-2,0-3,-1-1,-55 6,48-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1034.01">1208 808,'-13'11,"0"1,2 1,-1 0,-15 24,-32 65,29-49,-55 99,-122 302,164-335,6 2,5 2,-22 166,-2 532,33-348,-73 672,11-164,59-285,31-536,7 0,42 210,57 40,30-13,-133-375,51 152,-57-168,0 0,-1 0,0 1,0-1,0 0,-1 9,0-14,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,-37-23,-45-47,-148-162,168 165,10 12,-149-171,202 227,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,13 3,16 8,60 36,157 111,-5-2,-237-154,-1 0,1 0,0 0,0 0,0-1,0 0,0 1,1-1,-1-1,0 1,5 0,-6-2,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,1-1,-1 0,0 1,-1-1,1 0,0 0,0 0,-1-1,2-2,8-14,-1 0,0-1,-2-1,-1 0,10-40,-16 58,87-421,-59 257,111-544,-110 568</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4435.58">2617 3146,'-2'-1,"1"1,0-1,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,0 0,-1 0,1-1,0 0,0 0,0 0,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1-1,2 0,7-5,0 1,0 0,1 0,13-4,32-10,1 2,1 3,0 2,1 3,82-3,302 16,314 60,-515-27,262 75,-21 28,180 47,-444-130,1686 411,946 239,-1022-158,-46 134,198 251,-847-412,-876-421,3-12,412 83,-139-90,-158-28,-337-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4806.73">19871 7472,'2'8,"52"155,1 2,-47-136,-1 1,-2 0,2 51,-7-66,0-1,-2 1,1-1,-2 1,0-1,-1 1,0-1,-1-1,-1 1,0-1,-1 0,0 0,-11 14,3-9,0 0,-2-1,0-1,0 0,-2-2,0 0,-32 18,-14 3,-130 47,140-62</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6103.75">2815 2917,'-20'16,"10"-6,-17 4,0 0,0-2,-1-1,-1-2,-47 10,28-6,-138 37,-218 29,336-70,0-3,0-4,0-2,-1-3,1-3,-123-27,168 27,-1 0,2-2,-1 0,1-1,0-2,1 0,1-1,-21-16,40 28,0-1,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0-1,0 1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,1-2,5-2,0-1,0 1,1 1,0-1,9-3,-11 5,35-15,0 1,1 3,1 1,0 2,86-9,228 3,-316 17,176-2,352 42,-565-39,35 4,-1 2,67 22,-95-26,0 0,-1 1,0 1,0 0,0 0,-1 1,0 0,0 0,0 1,-1 0,0 0,0 1,-1-1,0 2,0-1,5 11,-5-5,-1 1,-1-1,0 1,0 0,-2 0,0 1,0 23,-3-10</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-16T13:09:38.750"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2932 1108,'-1'0,"-1"1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 1,-6 5,-191 145,-6-9,-237 122,320-204,-222 78,247-109,-1-4,-201 26,236-46,1-3,-1-3,0-2,0-3,1-2,-113-30,143 28,1-2,1-1,-1-1,2-1,0-2,1-1,1-1,0-2,2 0,0-2,1-1,2-1,0 0,-32-50,37 46,2 0,1-2,1 0,2 0,1-1,1 0,2-1,1 0,1 0,2 0,1-1,2 1,1-1,2 1,1 0,13-54,-4 40,2 1,2 1,2 0,1 1,3 1,1 2,2 0,2 1,1 2,65-62,-35 45,3 3,2 3,2 3,3 3,108-50,-85 52,1 5,2 3,2 4,100-14,-137 32,1 3,0 2,1 3,-1 3,91 12,-117-7,-1 1,0 2,0 1,-1 2,-1 1,0 2,0 1,-2 1,0 1,-1 2,27 25,-22-12,-1 1,-2 2,-2 1,-1 2,-2 1,-1 0,-3 2,31 78,-14-9,-5 1,26 152,-33-112,-13-40</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,119 +4881,119 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E11"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -637,11 +5005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BD5E91-7E88-497E-A1E8-95A2AC454B97}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -654,7 +5022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,14 +5030,2010 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F95A8EF-CD3A-45C1-9B86-1A00BA0B270D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C27689-4D16-4DED-9E59-D2D99B017D9F}">
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="56"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C32:D33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F95A8EF-CD3A-45C1-9B86-1A00BA0B270D}">
+  <dimension ref="B2:AD117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L105" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U110" sqref="U110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="Q2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="17"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="Q5" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="48">
+        <v>1</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="49">
+        <v>0</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="40"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+      <c r="Q6" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="43"/>
+    </row>
+    <row r="7" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="Q7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="51"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+    </row>
+    <row r="14" spans="2:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="Q14" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="43"/>
+    </row>
+    <row r="15" spans="2:30" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="25"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="Q15" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="51"/>
+    </row>
+    <row r="16" spans="2:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="2:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="2:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="26"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="48">
+        <v>10</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="49">
+        <v>6</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B22" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+    </row>
+    <row r="23" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="40"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="Q25" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="43"/>
+    </row>
+    <row r="26" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="Q26" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="40"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="Q36" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="43"/>
+    </row>
+    <row r="37" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="Q37" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="H39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B47" s="4"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2">
+        <v>9</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="H51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="H53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="40"/>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10"/>
+      <c r="Q54" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="43"/>
+    </row>
+    <row r="55" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="13"/>
+      <c r="Q55" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="51"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B59" s="4"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16"/>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>11</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="H63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="H64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="H65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" s="4"/>
+      <c r="C66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="4"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B71" s="4"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2">
+        <v>12</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="H75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="H76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="H77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="4"/>
+      <c r="C78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="4"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="4"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B81" s="4"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B82" s="4"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B83" s="4"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="16"/>
+    </row>
+    <row r="85" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="48">
+        <v>0</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="49">
+        <v>2</v>
+      </c>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="40"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B87" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="42"/>
+      <c r="O87" s="43"/>
+    </row>
+    <row r="88" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="N88" s="50"/>
+      <c r="O88" s="51"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+    </row>
+    <row r="93" spans="2:15" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B95" s="4"/>
+      <c r="C95" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B100" s="4"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="102" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="103" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="48">
+        <v>10</v>
+      </c>
+      <c r="D103" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" s="49">
+        <v>6</v>
+      </c>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="39"/>
+      <c r="O103" s="40"/>
+    </row>
+    <row r="104" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B104" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="42"/>
+      <c r="O104" s="43"/>
+    </row>
+    <row r="105" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N105" s="45"/>
+      <c r="O105" s="46"/>
+    </row>
+    <row r="107" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+    </row>
+    <row r="110" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B112" s="4"/>
+      <c r="C112" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="39"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39"/>
+      <c r="W112" s="39"/>
+      <c r="X112" s="39"/>
+      <c r="Y112" s="39"/>
+      <c r="Z112" s="39"/>
+      <c r="AA112" s="39"/>
+      <c r="AB112" s="39"/>
+      <c r="AC112" s="39"/>
+      <c r="AD112" s="40"/>
+    </row>
+    <row r="113" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="13"/>
+      <c r="Q113" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="42"/>
+      <c r="U113" s="42"/>
+      <c r="V113" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W113" s="42"/>
+      <c r="X113" s="42"/>
+      <c r="Y113" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z113" s="42"/>
+      <c r="AA113" s="42"/>
+      <c r="AB113" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC113" s="42"/>
+      <c r="AD113" s="43"/>
+    </row>
+    <row r="114" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="13"/>
+      <c r="Q114" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="R114" s="45"/>
+      <c r="S114" s="45"/>
+      <c r="T114" s="45"/>
+      <c r="U114" s="45"/>
+      <c r="V114" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="W114" s="45"/>
+      <c r="X114" s="45"/>
+      <c r="Y114" s="50"/>
+      <c r="Z114" s="50"/>
+      <c r="AA114" s="50"/>
+      <c r="AB114" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC114" s="50"/>
+      <c r="AD114" s="51"/>
+    </row>
+    <row r="115" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B117" s="4"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="116">
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F117"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="Q114:U114"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F100"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L83"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L71"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L47"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L35"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F83"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F71"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F59"/>
+    <mergeCell ref="C14:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F47"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F35"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>